--- a/awsproject/students123.xlsx
+++ b/awsproject/students123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="290">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,12 @@
     <t>Dipak</t>
   </si>
   <si>
+    <t>abhijeet</t>
+  </si>
+  <si>
+    <t>abhijeet1</t>
+  </si>
+  <si>
     <t>kumar</t>
   </si>
   <si>
@@ -325,6 +331,12 @@
     <t>dipak1234589011@gmail.com</t>
   </si>
   <si>
+    <t>abhijeet@gmail.com</t>
+  </si>
+  <si>
+    <t>abhijeet1@gmail.com</t>
+  </si>
+  <si>
     <t>Ashish@123</t>
   </si>
   <si>
@@ -424,6 +436,12 @@
     <t>pbkdf2_sha256$260000$a0Fkc8TCeSvJThCnT4Z59A$58WL5XTGVl/OPsH/GfOFfqR4UJ3kNJwyI/VvxgjCv2I=</t>
   </si>
   <si>
+    <t>pbkdf2_sha256$390000$wAkcrN9aCnsPvNJ7GafCNd$CFXsj7tz1doUKbP93GBov8cNgGMtO/Q/BodsPQzfNgs=</t>
+  </si>
+  <si>
+    <t>pbkdf2_sha256$390000$fe57XoELGliGdzR0N7Xoo2$q+sljMMuC6v7UTyyn+TQ9f6/S6VCZlTwkEFCLHsAyUk=</t>
+  </si>
+  <si>
     <t>2023-02-07T09:51:01.599484Z</t>
   </si>
   <si>
@@ -640,6 +658,12 @@
     <t>2023-02-24T11:24:49.993679Z</t>
   </si>
   <si>
+    <t>2023-03-15T06:59:01.983596Z</t>
+  </si>
+  <si>
+    <t>2023-03-15T07:03:57.108859Z</t>
+  </si>
+  <si>
     <t>2023-02-07T09:51:01.604488Z</t>
   </si>
   <si>
@@ -854,6 +878,12 @@
   </si>
   <si>
     <t>2023-02-24T11:24:49.993710Z</t>
+  </si>
+  <si>
+    <t>2023-03-15T06:59:01.984002Z</t>
+  </si>
+  <si>
+    <t>2023-03-15T07:03:57.108884Z</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1266,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1283,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1300,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1317,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1334,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1351,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1368,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1385,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1402,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1419,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1436,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1453,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1467,16 +1497,16 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1487,22 +1517,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1513,22 +1543,22 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1539,22 +1569,22 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1565,19 +1595,19 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1588,19 +1618,19 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1611,19 +1641,19 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1634,25 +1664,25 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1663,25 +1693,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1692,22 +1722,22 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1718,25 +1748,25 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1747,25 +1777,25 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1776,25 +1806,25 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1805,25 +1835,25 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1834,25 +1864,25 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1863,25 +1893,25 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1892,25 +1922,25 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1921,25 +1951,25 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1950,25 +1980,25 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1979,25 +2009,25 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2008,25 +2038,25 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2037,25 +2067,25 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L35" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2066,25 +2096,25 @@
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L36" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2095,25 +2125,25 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L37" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2124,25 +2154,25 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L38" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2153,25 +2183,25 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L39" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2182,25 +2212,25 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L40" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2211,25 +2241,25 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L41" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2240,25 +2270,25 @@
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2269,25 +2299,25 @@
         <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L43" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2298,25 +2328,25 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2327,25 +2357,25 @@
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2356,25 +2386,25 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L46" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2385,25 +2415,25 @@
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L47" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2414,25 +2444,25 @@
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L48" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2443,25 +2473,25 @@
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2472,25 +2502,25 @@
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2501,25 +2531,25 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2530,25 +2560,25 @@
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2559,25 +2589,25 @@
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L53" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2588,25 +2618,25 @@
         <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2617,25 +2647,25 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L55" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2646,25 +2676,25 @@
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2675,25 +2705,25 @@
         <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L57" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2704,25 +2734,25 @@
         <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L58" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2733,25 +2763,25 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L59" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2762,25 +2792,25 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L60" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2791,25 +2821,25 @@
         <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L61" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2820,25 +2850,25 @@
         <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L62" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2849,28 +2879,28 @@
         <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L63" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2881,28 +2911,28 @@
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H64" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L64" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2913,28 +2943,28 @@
         <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H65" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L65" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2945,28 +2975,28 @@
         <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H66" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L66" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2977,28 +3007,28 @@
         <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H67" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L67" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3009,28 +3039,28 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H68" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L68" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3041,28 +3071,28 @@
         <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H69" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L69" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3073,28 +3103,28 @@
         <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H70" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L70" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3105,28 +3135,28 @@
         <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H71" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L71" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3137,28 +3167,28 @@
         <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H72" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L72" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3169,28 +3199,28 @@
         <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G73" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H73" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L73" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3201,28 +3231,92 @@
         <v>40</v>
       </c>
       <c r="D74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>104</v>
+      </c>
+      <c r="G74" t="s">
+        <v>104</v>
+      </c>
+      <c r="H74" t="s">
+        <v>139</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>213</v>
+      </c>
+      <c r="L74" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
         <v>41</v>
       </c>
-      <c r="E74" t="s">
+      <c r="D75" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>105</v>
+      </c>
+      <c r="G75" t="s">
+        <v>105</v>
+      </c>
+      <c r="H75" t="s">
+        <v>140</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>214</v>
+      </c>
+      <c r="L75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
         <v>42</v>
       </c>
-      <c r="F74" t="s">
-        <v>102</v>
-      </c>
-      <c r="G74" t="s">
-        <v>102</v>
-      </c>
-      <c r="H74" t="s">
-        <v>135</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>207</v>
-      </c>
-      <c r="L74" t="s">
-        <v>279</v>
+      <c r="D76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>106</v>
+      </c>
+      <c r="G76" t="s">
+        <v>106</v>
+      </c>
+      <c r="H76" t="s">
+        <v>141</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>215</v>
+      </c>
+      <c r="L76" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
